--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.401376</v>
+        <v>5.712771666666666</v>
       </c>
       <c r="H2">
-        <v>85.204128</v>
+        <v>17.138315</v>
       </c>
       <c r="I2">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="J2">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N2">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3220.790980164139</v>
+        <v>0.2268465458544444</v>
       </c>
       <c r="R2">
-        <v>28987.11882147725</v>
+        <v>2.04161891269</v>
       </c>
       <c r="S2">
-        <v>0.2813463917610604</v>
+        <v>0.1683613830606884</v>
       </c>
       <c r="T2">
-        <v>0.2813463917610605</v>
+        <v>0.1683613830606885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>44.491124</v>
       </c>
       <c r="I3">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="J3">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N3">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1681.803619615287</v>
+        <v>0.5888944041804444</v>
       </c>
       <c r="R3">
-        <v>15136.23257653758</v>
+        <v>5.300049637623999</v>
       </c>
       <c r="S3">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
       <c r="T3">
-        <v>0.1469109243485705</v>
+        <v>0.4370667227533506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.71632200000001</v>
+        <v>13.388457</v>
       </c>
       <c r="H4">
-        <v>173.148966</v>
+        <v>40.165371</v>
       </c>
       <c r="I4">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="J4">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N4">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>6545.183208934985</v>
+        <v>0.531637776194</v>
       </c>
       <c r="R4">
-        <v>58906.64888041487</v>
+        <v>4.784739985746</v>
       </c>
       <c r="S4">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
       <c r="T4">
-        <v>0.5717426838903691</v>
+        <v>0.3945718941859609</v>
       </c>
     </row>
   </sheetData>
